--- a/Completed Tasks.xlsx
+++ b/Completed Tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Task</t>
   </si>
@@ -572,7 +572,7 @@
   <dimension ref="B1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,9 @@
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -698,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">

--- a/Completed Tasks.xlsx
+++ b/Completed Tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Gantt chart</t>
+  </si>
+  <si>
+    <t>Christian, Travis</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
   <dimension ref="B1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,19 +646,25 @@
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">

--- a/Completed Tasks.xlsx
+++ b/Completed Tasks.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9545B93-6661-4636-9F3B-1C3B0528F497}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +76,6 @@
     <t>Overall design/layout</t>
   </si>
   <si>
-    <t>Christian, Josh, Travis</t>
-  </si>
-  <si>
     <t>Logo</t>
   </si>
   <si>
@@ -93,16 +91,19 @@
     <t>Website and game flow</t>
   </si>
   <si>
-    <t>Josh, Christian, Travis</t>
-  </si>
-  <si>
     <t>Gantt chart</t>
+  </si>
+  <si>
+    <t>Christian, Josh, Travis, Adamma, Makafui</t>
+  </si>
+  <si>
+    <t>Josh, Christian, Travis, Adamma, Makafui</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,18 +569,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -620,12 +621,12 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -662,15 +663,15 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -684,20 +685,20 @@
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>10</v>
@@ -721,7 +722,7 @@
     </row>
     <row r="20" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
